--- a/biology/Botanique/Dasya/Dasya.xlsx
+++ b/biology/Botanique/Dasya/Dasya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dasya est un genre d'algues rouges de la famille des Ceramiaceae, comprenant une centaine d'espèces.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Dasya a été créé en 1824 par le botaniste suédois Carl Adolph Agardh (1785-1859) avec pour espèce type Dasya baillouviana (S.G.Gmelin) Montagne, 1841[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Dasya a été créé en 1824 par le botaniste suédois Carl Adolph Agardh (1785-1859) avec pour espèce type Dasya baillouviana (S.G.Gmelin) Montagne, 1841. 
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Dasya, dérivé du grec δασύς / dasýs, « velu, poilu ».
 </t>
@@ -573,9 +589,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (5 septembre 2021)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (5 septembre 2021) :
 Dasya baillouviana
 Dasya binghamiae A.J.K.Millar
 Dasya collinsiana
@@ -585,7 +603,7 @@
 Dasya pedicellata (C. Agardh) C. Agardh
 Dasya rigidula
 Dasya sinicola (Setchell &amp; Gardner) Dawson
-Selon ITIS      (5 septembre 2021)[3] :
+Selon ITIS      (5 septembre 2021) :
 Dasya baillouviana
 Dasya collinsiana
 Dasya corymbifera
@@ -594,7 +612,7 @@
 Dasya pedicellata (C. Agardh) C. Agardh
 Dasya rigidula
 Dasya sinicola (Setchell &amp; Gardner) Dawson
-Selon NCBI  (5 septembre 2021)[4] :
+Selon NCBI  (5 septembre 2021) :
 Dasya anastomosans Dasyopsis anastomosans Weber Bosse, 1921
 Dasya baillouviana
 Dasya binghamiae A.J.K.Millar 1996
@@ -615,7 +633,7 @@
 Dasya sinicola Heterosiphonia sinicola Setchell &amp; N.L.Gardner, 1924
 Dasya spinuligera Collins &amp; Hervey 1917
 Dasya villosa
-Selon World Register of Marine Species                               (5 septembre 2021)[1] :
+Selon World Register of Marine Species                               (5 septembre 2021) :
 sous-genre Dasya subg. Compsoteia
 sous-genre Dasya subg. Dasyopsis
 sous-genre Dasya subg. Eupogodon
@@ -732,7 +750,7 @@
 Dasya ulhasii S.U.Jadiuye &amp; P.S.N.Rao, 2007
 Dasya villosa Harvey, 1844
 Dasya wilsonis J.Agardh, 1890
-Selon World Register of Marine Species                               (5 septembre 2021)[1] :
+Selon World Register of Marine Species                               (5 septembre 2021) :
 Dasya abbottiana D.L.Ballantine &amp; N.E.Aponte, 2004
 Dasya adela Heggøy, Rueness &amp; Sjøtun, 2016
 Dasya anastomosans (Weber-van Bosse) M.J.Wynne, 2002
